--- a/Thomer_ELT-23056_Logbook.xlsx
+++ b/Thomer_ELT-23056_Logbook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba8bb3ba8fa52c85/Dokumente/TUT/Embedded Systems and Electronics Productization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive - TUNI.fi\Embedded Systems and Electronics Productization\Project\MySynth_ELT-23056\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="10_ncr:100000_{0DFDBBFB-1D3A-4783-8938-1E19FB01F939}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{9B46BA64-E757-484B-9E0A-88AEF90A6F74}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A4F454-D120-4C61-91C0-3A70C5563444}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>Date</t>
   </si>
@@ -177,6 +177,30 @@
   </si>
   <si>
     <t>Creating Test Plan Assignment</t>
+  </si>
+  <si>
+    <t>13.3.19</t>
+  </si>
+  <si>
+    <t>16&amp;17.3.19</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>20.3.19</t>
+  </si>
+  <si>
+    <t>Code Review</t>
+  </si>
+  <si>
+    <t>22.3.19</t>
+  </si>
+  <si>
+    <t>Review Meeting</t>
+  </si>
+  <si>
+    <t>27.3.19</t>
   </si>
 </sst>
 </file>
@@ -563,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,7 +635,7 @@
       </c>
       <c r="F3" s="12">
         <f>SUM(B4:B101)</f>
-        <v>2.770833333333333</v>
+        <v>3.708333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -934,39 +958,81 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="3"/>
+      <c r="A33" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="3"/>
+      <c r="A34" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="3"/>
+      <c r="A35" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="3"/>
+      <c r="A36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0.1875</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="3"/>
+      <c r="A37" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="3"/>
+      <c r="A38" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="3"/>
+      <c r="A39" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>

--- a/Thomer_ELT-23056_Logbook.xlsx
+++ b/Thomer_ELT-23056_Logbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive - TUNI.fi\Embedded Systems and Electronics Productization\Project\MySynth_ELT-23056\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A4F454-D120-4C61-91C0-3A70C5563444}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{E4A4F454-D120-4C61-91C0-3A70C5563444}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{69328F71-BF02-4B6D-98CC-0327F9217F57}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
   <si>
     <t>Date</t>
   </si>
@@ -201,6 +201,48 @@
   </si>
   <si>
     <t>27.3.19</t>
+  </si>
+  <si>
+    <t>30.3.19</t>
+  </si>
+  <si>
+    <t>Work on IPR assignment</t>
+  </si>
+  <si>
+    <t>10.4.19</t>
+  </si>
+  <si>
+    <t>4.4.19</t>
+  </si>
+  <si>
+    <t>6.4.19</t>
+  </si>
+  <si>
+    <t>9.4.19</t>
+  </si>
+  <si>
+    <t>Group Work on Project. Coding Software: Base functionality</t>
+  </si>
+  <si>
+    <t>Group Work on Project. Coding Software: Effects</t>
+  </si>
+  <si>
+    <t>Group Work on Project. Coding Software: More Effects</t>
+  </si>
+  <si>
+    <t>12.4.19</t>
+  </si>
+  <si>
+    <t>19.4.19</t>
+  </si>
+  <si>
+    <t>20.4.19</t>
+  </si>
+  <si>
+    <t>Group Work on Project. Coding Software: Bug fixing</t>
+  </si>
+  <si>
+    <t>Group Work on Project. Coding Software: Port to Raspberry</t>
   </si>
 </sst>
 </file>
@@ -585,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,8 +676,8 @@
         <v>3</v>
       </c>
       <c r="F3" s="12">
-        <f>SUM(B4:B101)</f>
-        <v>3.708333333333333</v>
+        <f>SUM(B4:B104)</f>
+        <v>4.7499999999999991</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1035,19 +1077,103 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="3"/>
+      <c r="A40" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="3"/>
+      <c r="A41" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="3"/>
+      <c r="A42" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Thomer_ELT-23056_Logbook.xlsx
+++ b/Thomer_ELT-23056_Logbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive - TUNI.fi\Embedded Systems and Electronics Productization\Project\MySynth_ELT-23056\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{E4A4F454-D120-4C61-91C0-3A70C5563444}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{69328F71-BF02-4B6D-98CC-0327F9217F57}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{E4A4F454-D120-4C61-91C0-3A70C5563444}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{5BA4072C-2872-409C-B9D4-0B5A884967DB}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="80">
   <si>
     <t>Date</t>
   </si>
@@ -243,6 +243,33 @@
   </si>
   <si>
     <t>Group Work on Project. Coding Software: Port to Raspberry</t>
+  </si>
+  <si>
+    <t>23.4.19</t>
+  </si>
+  <si>
+    <t>Final Fixing for Final Demonstration</t>
+  </si>
+  <si>
+    <t>Creating Demonstration Slides</t>
+  </si>
+  <si>
+    <t>24.4.19</t>
+  </si>
+  <si>
+    <t>Final Demonstration</t>
+  </si>
+  <si>
+    <t>27.4.19</t>
+  </si>
+  <si>
+    <t>Working on final Report</t>
+  </si>
+  <si>
+    <t>22.4.19</t>
+  </si>
+  <si>
+    <t>29.4.19</t>
   </si>
 </sst>
 </file>
@@ -627,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,8 +703,8 @@
         <v>3</v>
       </c>
       <c r="F3" s="12">
-        <f>SUM(B4:B104)</f>
-        <v>4.7499999999999991</v>
+        <f>SUM(B4:B105)</f>
+        <v>5.4791666666666661</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1147,7 +1174,7 @@
         <v>66</v>
       </c>
       <c r="B46" s="5">
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>65</v>
@@ -1161,7 +1188,7 @@
         <v>0.125</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1172,7 +1199,73 @@
         <v>0.125</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="5">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="5">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="5">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
